--- a/data/processed/Ratio_to_median_purchase_price.xlsx
+++ b/data/processed/Ratio_to_median_purchase_price.xlsx
@@ -1,37 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adityasunil/Desktop/UBC/Labs/project-group-group56/data/processed/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6ED0BE-1341-384E-BEF5-1EC088CAAAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>distance_from_home</t>
+  </si>
+  <si>
+    <t>distance_from_last_transaction</t>
+  </si>
+  <si>
+    <t>ratio_to_median_purchase_price</t>
+  </si>
+  <si>
+    <t>repeat_retailer</t>
+  </si>
+  <si>
+    <t>used_chip</t>
+  </si>
+  <si>
+    <t>used_pin_number</t>
+  </si>
+  <si>
+    <t>online_order</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>(0, 2.809)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.809, 5.601]	</t>
+  </si>
+  <si>
+    <t>(5.601, 8.394]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8.394, 11.186]	</t>
+  </si>
+  <si>
+    <t>(11.186, 13.978]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13.978, 16.77]	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16.77, 19.563]	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(19.563, 22.355]	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22.355, 25.147]	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25.147, 27.939]	</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +123,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,318 +448,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>distance_from_home</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>distance_from_last_transaction</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ratio_to_median_purchase_price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>repeat_retailer</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>used_chip</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>used_pin_number</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>online_order</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>fraud</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>24.77093241492491</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>24.770932414924911</v>
+      </c>
+      <c r="C2">
         <v>3.558427828067432</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.9727723406578191</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8852223816355811</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.3390722142515543</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="D2">
+        <v>0.97277234065781915</v>
+      </c>
+      <c r="E2">
+        <v>0.88522238163558109</v>
+      </c>
+      <c r="F2">
+        <v>0.33907221425155432</v>
+      </c>
+      <c r="G2">
         <v>0.1023433763749402</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.6482544237207079</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.02056432329029173</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="H2">
+        <v>0.64825442372070785</v>
+      </c>
+      <c r="I2">
+        <v>2.0564323290291731E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>22.61229191645781</v>
       </c>
-      <c r="B3" t="n">
-        <v>3.644156799822262</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="C3">
+        <v>3.6441567998222619</v>
+      </c>
+      <c r="D3">
         <v>3.938319688928186</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.881508078994614</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3123877917414722</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.111310592459605</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="E3">
+        <v>0.88150807899461403</v>
+      </c>
+      <c r="F3">
+        <v>0.31238779174147219</v>
+      </c>
+      <c r="G3">
+        <v>0.11131059245960501</v>
+      </c>
+      <c r="H3">
         <v>0.6642728904847397</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.2818671454219031</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>27.30950276915924</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.649073762700637</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.666214501840765</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9044585987261147</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3885350318471338</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1146496815286624</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6178343949044586</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I3">
+        <v>0.28186714542190311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>27.309502769159241</v>
+      </c>
+      <c r="C4">
+        <v>3.6490737627006369</v>
+      </c>
+      <c r="D4">
+        <v>6.6662145018407646</v>
+      </c>
+      <c r="E4">
+        <v>0.90445859872611467</v>
+      </c>
+      <c r="F4">
+        <v>0.38853503184713378</v>
+      </c>
+      <c r="G4">
+        <v>0.11464968152866239</v>
+      </c>
+      <c r="H4">
+        <v>0.61783439490445857</v>
+      </c>
+      <c r="I4">
         <v>0.5859872611464968</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>19.33989246280435</v>
       </c>
-      <c r="B5" t="n">
-        <v>4.649780103608696</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.5044197445</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9347826086956522</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4130434782608696</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6304347826086957</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6086956521739131</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>20.1781404642</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.6394828796</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12.443987248</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C5">
+        <v>4.6497801036086956</v>
+      </c>
+      <c r="D5">
+        <v>9.5044197444999998</v>
+      </c>
+      <c r="E5">
+        <v>0.93478260869565222</v>
+      </c>
+      <c r="F5">
+        <v>0.41304347826086962</v>
+      </c>
+      <c r="G5">
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.63043478260869568</v>
+      </c>
+      <c r="I5">
+        <v>0.60869565217391308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>20.178140464199998</v>
+      </c>
+      <c r="C6">
+        <v>2.6394828796000001</v>
+      </c>
+      <c r="D6">
+        <v>12.443987247999999</v>
+      </c>
+      <c r="E6">
         <v>0.88</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6">
         <v>0.32</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>0.08</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.64</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6">
         <v>0.64</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
         <v>17.95506183611111</v>
       </c>
-      <c r="B7" t="n">
-        <v>2.927683167222222</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="C7">
+        <v>2.9276831672222219</v>
+      </c>
+      <c r="D7">
         <v>15.40871541222222</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>0.3888888888888889</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.7222222222222222</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>20.35159682477778</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.041182649555556</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18.32818737222222</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G7">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="I7">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>20.351596824777779</v>
+      </c>
+      <c r="C8">
+        <v>2.0411826495555561</v>
+      </c>
+      <c r="D8">
+        <v>18.328187372222221</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
         <v>13.17738916275</v>
       </c>
-      <c r="B9" t="n">
-        <v>1.538213245</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="C9">
+        <v>1.5382132449999999</v>
+      </c>
+      <c r="D9">
         <v>20.900748215</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.75</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9">
         <v>0.75</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>49.42016146533333</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2.55598296</v>
-      </c>
-      <c r="C10" t="n">
-        <v>23.67984304</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F10" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>49.420161465333329</v>
+      </c>
+      <c r="C10">
+        <v>2.5559829600000001</v>
+      </c>
+      <c r="D10">
+        <v>23.679843040000002</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
         <v>10.93659025</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.941798634</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="C11">
+        <v>0.94179863399999997</v>
+      </c>
+      <c r="D11">
         <v>27.93933341</v>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
     </row>
